--- a/Team-Data/2013-14/1-1-2013-14.xlsx
+++ b/Team-Data/2013-14/1-1-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
@@ -765,7 +832,7 @@
         <v>14</v>
       </c>
       <c r="AK2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -774,10 +841,10 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP2" t="n">
         <v>20</v>
@@ -804,22 +871,22 @@
         <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
         <v>23</v>
       </c>
       <c r="BB2" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC2" t="n">
         <v>11</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
@@ -959,10 +1026,10 @@
         <v>16</v>
       </c>
       <c r="AO3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP3" t="n">
         <v>27</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>28</v>
       </c>
       <c r="AQ3" t="n">
         <v>12</v>
@@ -977,7 +1044,7 @@
         <v>25</v>
       </c>
       <c r="AU3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV3" t="n">
         <v>25</v>
@@ -1001,7 +1068,7 @@
         <v>24</v>
       </c>
       <c r="BC3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1174,7 +1241,7 @@
         <v>6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA4" t="n">
         <v>7</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -1212,103 +1279,103 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>0.424</v>
+        <v>0.438</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="J5" t="n">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.42</v>
+        <v>0.421</v>
       </c>
       <c r="L5" t="n">
         <v>5.1</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O5" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P5" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.726</v>
+        <v>0.719</v>
       </c>
       <c r="R5" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S5" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T5" t="n">
-        <v>43.5</v>
+        <v>43.7</v>
       </c>
       <c r="U5" t="n">
         <v>19.4</v>
       </c>
       <c r="V5" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W5" t="n">
         <v>6.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.3</v>
+        <v>92.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.1</v>
+        <v>-1.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
         <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1323,22 +1390,22 @@
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR5" t="n">
         <v>19</v>
       </c>
       <c r="AS5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU5" t="n">
         <v>26</v>
@@ -1350,13 +1417,13 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA5" t="n">
         <v>9</v>
@@ -1365,7 +1432,7 @@
         <v>29</v>
       </c>
       <c r="BC5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
         <v>22</v>
@@ -1484,7 +1551,7 @@
         <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
@@ -1505,7 +1572,7 @@
         <v>28</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>13</v>
@@ -1538,7 +1605,7 @@
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
         <v>8</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1666,7 +1733,7 @@
         <v>24</v>
       </c>
       <c r="AH7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI7" t="n">
         <v>20</v>
@@ -1702,25 +1769,25 @@
         <v>17</v>
       </c>
       <c r="AT7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW7" t="n">
         <v>20</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY7" t="n">
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA7" t="n">
         <v>21</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -1758,88 +1825,88 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
         <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.594</v>
+        <v>0.581</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="J8" t="n">
-        <v>84.2</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.466</v>
+        <v>0.468</v>
       </c>
       <c r="L8" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M8" t="n">
         <v>22.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.374</v>
+        <v>0.378</v>
       </c>
       <c r="O8" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="P8" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S8" t="n">
         <v>30.7</v>
       </c>
       <c r="T8" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U8" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
         <v>14.5</v>
       </c>
       <c r="W8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="X8" t="n">
         <v>4.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.3</v>
+        <v>103.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
@@ -1851,28 +1918,28 @@
         <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1881,37 +1948,37 @@
         <v>24</v>
       </c>
       <c r="AS8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT8" t="n">
         <v>27</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>8</v>
       </c>
       <c r="AW8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
         <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BB8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
         <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>0.452</v>
+        <v>0.467</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
@@ -1958,25 +2025,25 @@
         <v>37.1</v>
       </c>
       <c r="J9" t="n">
-        <v>84.40000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.439</v>
+        <v>0.441</v>
       </c>
       <c r="L9" t="n">
         <v>7.3</v>
       </c>
       <c r="M9" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N9" t="n">
-        <v>0.344</v>
+        <v>0.349</v>
       </c>
       <c r="O9" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P9" t="n">
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
       <c r="Q9" t="n">
         <v>0.728</v>
@@ -1988,7 +2055,7 @@
         <v>33</v>
       </c>
       <c r="T9" t="n">
-        <v>45.5</v>
+        <v>45.4</v>
       </c>
       <c r="U9" t="n">
         <v>21.2</v>
@@ -2006,37 +2073,37 @@
         <v>6</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1.4</v>
+        <v>-1</v>
       </c>
       <c r="AD9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE9" t="n">
         <v>13</v>
       </c>
-      <c r="AE9" t="n">
-        <v>14</v>
-      </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
         <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
@@ -2048,13 +2115,13 @@
         <v>15</v>
       </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AO9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP9" t="n">
         <v>8</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>6</v>
       </c>
       <c r="AQ9" t="n">
         <v>24</v>
@@ -2063,7 +2130,7 @@
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>-2.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>10</v>
@@ -2233,7 +2300,7 @@
         <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2254,19 +2321,19 @@
         <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
         <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY10" t="n">
         <v>13</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>15</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>8</v>
@@ -2403,7 +2470,7 @@
         <v>8</v>
       </c>
       <c r="AK11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL11" t="n">
         <v>3</v>
@@ -2412,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
         <v>24</v>
@@ -2421,7 +2488,7 @@
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR11" t="n">
         <v>14</v>
@@ -2433,7 +2500,7 @@
         <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV11" t="n">
         <v>29</v>
@@ -2442,7 +2509,7 @@
         <v>16</v>
       </c>
       <c r="AX11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
         <v>15</v>
@@ -2451,10 +2518,10 @@
         <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC11" t="n">
         <v>7</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>8</v>
@@ -2576,7 +2643,7 @@
         <v>8</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2597,7 +2664,7 @@
         <v>23</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2630,7 +2697,7 @@
         <v>20</v>
       </c>
       <c r="AZ12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -2668,85 +2735,85 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
         <v>25</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>0.806</v>
+        <v>0.833</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="J13" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L13" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M13" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="N13" t="n">
         <v>0.363</v>
       </c>
       <c r="O13" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P13" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.787</v>
+        <v>0.791</v>
       </c>
       <c r="R13" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S13" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="T13" t="n">
-        <v>43.8</v>
+        <v>44.1</v>
       </c>
       <c r="U13" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W13" t="n">
         <v>7.6</v>
       </c>
       <c r="X13" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
         <v>23</v>
@@ -2773,13 +2840,13 @@
         <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN13" t="n">
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP13" t="n">
         <v>14</v>
@@ -2788,7 +2855,7 @@
         <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
@@ -2800,19 +2867,19 @@
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
         <v>17</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
         <v>14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -2850,85 +2917,85 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.647</v>
+        <v>0.636</v>
       </c>
       <c r="H14" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I14" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="J14" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.464</v>
+        <v>0.461</v>
       </c>
       <c r="L14" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M14" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="N14" t="n">
         <v>0.333</v>
       </c>
       <c r="O14" t="n">
-        <v>20.3</v>
+        <v>20.7</v>
       </c>
       <c r="P14" t="n">
-        <v>28.2</v>
+        <v>28.8</v>
       </c>
       <c r="Q14" t="n">
         <v>0.72</v>
       </c>
       <c r="R14" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S14" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T14" t="n">
         <v>43.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="V14" t="n">
         <v>14.2</v>
       </c>
       <c r="W14" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y14" t="n">
         <v>3.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>104.7</v>
+        <v>104.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2940,19 +3007,19 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
@@ -2967,19 +3034,19 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
         <v>6</v>
@@ -2988,7 +3055,7 @@
         <v>10</v>
       </c>
       <c r="AX14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-4.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
         <v>21</v>
@@ -3155,7 +3222,7 @@
         <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
         <v>18</v>
@@ -3170,19 +3237,19 @@
         <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
         <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA15" t="n">
         <v>26</v>
       </c>
       <c r="BB15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>-2.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH16" t="n">
         <v>19</v>
@@ -3313,7 +3380,7 @@
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,25 +3389,25 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>17</v>
       </c>
       <c r="AR16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS16" t="n">
         <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3355,13 +3422,13 @@
         <v>27</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>6.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3498,13 +3565,13 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM17" t="n">
         <v>13</v>
       </c>
       <c r="AN17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO17" t="n">
         <v>13</v>
@@ -3531,7 +3598,7 @@
         <v>15</v>
       </c>
       <c r="AW17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI18" t="n">
         <v>27</v>
@@ -3686,7 +3753,7 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
@@ -3713,7 +3780,7 @@
         <v>24</v>
       </c>
       <c r="AW18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -3760,58 +3827,58 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
         <v>16</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.484</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="J19" t="n">
-        <v>88.90000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.433</v>
+        <v>0.429</v>
       </c>
       <c r="L19" t="n">
         <v>7.9</v>
       </c>
       <c r="M19" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="N19" t="n">
         <v>0.336</v>
       </c>
       <c r="O19" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="P19" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="Q19" t="n">
         <v>0.796</v>
       </c>
       <c r="R19" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="S19" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="T19" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="U19" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V19" t="n">
         <v>14.3</v>
@@ -3820,49 +3887,49 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X19" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Y19" t="n">
         <v>5.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.7</v>
+        <v>106.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
         <v>11</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM19" t="n">
         <v>9</v>
@@ -3871,7 +3938,7 @@
         <v>25</v>
       </c>
       <c r="AO19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3883,13 +3950,13 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT19" t="n">
         <v>3</v>
       </c>
       <c r="AU19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -3942,37 +4009,37 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" t="n">
         <v>14</v>
       </c>
       <c r="F20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" t="n">
-        <v>0.467</v>
+        <v>0.483</v>
       </c>
       <c r="H20" t="n">
         <v>48.7</v>
       </c>
       <c r="I20" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="J20" t="n">
         <v>87.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.455</v>
+        <v>0.452</v>
       </c>
       <c r="L20" t="n">
         <v>6.7</v>
       </c>
       <c r="M20" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.383</v>
+        <v>0.386</v>
       </c>
       <c r="O20" t="n">
         <v>17.1</v>
@@ -3981,22 +4048,22 @@
         <v>22.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R20" t="n">
         <v>13.4</v>
       </c>
       <c r="S20" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="T20" t="n">
-        <v>43.8</v>
+        <v>44.1</v>
       </c>
       <c r="U20" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V20" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="W20" t="n">
         <v>8.800000000000001</v>
@@ -4008,28 +4075,28 @@
         <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA20" t="n">
         <v>19.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>103.3</v>
+        <v>103</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG20" t="n">
         <v>14</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>15</v>
       </c>
       <c r="AH20" t="n">
         <v>7</v>
@@ -4050,7 +4117,7 @@
         <v>27</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
@@ -4065,13 +4132,13 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT20" t="n">
         <v>11</v>
       </c>
       <c r="AU20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4092,7 +4159,7 @@
         <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>-4.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF21" t="n">
         <v>24</v>
       </c>
       <c r="AG21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH21" t="n">
         <v>9</v>
@@ -4223,7 +4290,7 @@
         <v>13</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -4384,16 +4451,16 @@
         <v>8.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
         <v>20</v>
@@ -4438,7 +4505,7 @@
         <v>12</v>
       </c>
       <c r="AV22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>23</v>
@@ -4587,7 +4654,7 @@
         <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>16</v>
@@ -4608,7 +4675,7 @@
         <v>19</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS23" t="n">
         <v>7</v>
@@ -4629,13 +4696,13 @@
         <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
         <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>0.323</v>
+        <v>0.3</v>
       </c>
       <c r="H24" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I24" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J24" t="n">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L24" t="n">
         <v>7.5</v>
@@ -4700,25 +4767,25 @@
         <v>22.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.33</v>
+        <v>0.328</v>
       </c>
       <c r="O24" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P24" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.714</v>
+        <v>0.715</v>
       </c>
       <c r="R24" t="n">
         <v>12.1</v>
       </c>
       <c r="S24" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="T24" t="n">
-        <v>45.5</v>
+        <v>45.3</v>
       </c>
       <c r="U24" t="n">
         <v>23.1</v>
@@ -4730,43 +4797,43 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y24" t="n">
         <v>6.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>103</v>
+        <v>102.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AF24" t="n">
         <v>24</v>
       </c>
       <c r="AG24" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AH24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK24" t="n">
         <v>20</v>
@@ -4790,13 +4857,13 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS24" t="n">
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU24" t="n">
         <v>9</v>
@@ -4814,13 +4881,13 @@
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>3.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4975,7 +5042,7 @@
         <v>15</v>
       </c>
       <c r="AS25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT25" t="n">
         <v>14</v>
@@ -4987,7 +5054,7 @@
         <v>26</v>
       </c>
       <c r="AW25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX25" t="n">
         <v>8</v>
@@ -5002,7 +5069,7 @@
         <v>11</v>
       </c>
       <c r="BB25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC25" t="n">
         <v>9</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -5175,7 +5242,7 @@
         <v>18</v>
       </c>
       <c r="AY26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5309,7 +5376,7 @@
         <v>9</v>
       </c>
       <c r="AI27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
         <v>15</v>
@@ -5321,7 +5388,7 @@
         <v>22</v>
       </c>
       <c r="AM27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN27" t="n">
         <v>24</v>
@@ -5357,7 +5424,7 @@
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5524,19 +5591,19 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW28" t="n">
         <v>13</v>
       </c>
       <c r="AX28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" t="n">
         <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0.483</v>
       </c>
       <c r="H29" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I29" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J29" t="n">
-        <v>82.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K29" t="n">
         <v>0.434</v>
@@ -5607,37 +5674,37 @@
         <v>7.6</v>
       </c>
       <c r="M29" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O29" t="n">
         <v>19.8</v>
       </c>
       <c r="P29" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="R29" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S29" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T29" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U29" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="V29" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W29" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
         <v>4.6</v>
@@ -5646,28 +5713,28 @@
         <v>5</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
         <v>5</v>
@@ -5688,19 +5755,19 @@
         <v>12</v>
       </c>
       <c r="AN29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="n">
         <v>5</v>
       </c>
       <c r="AP29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
         <v>6</v>
       </c>
       <c r="AR29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS29" t="n">
         <v>20</v>
@@ -5709,13 +5776,13 @@
         <v>15</v>
       </c>
       <c r="AU29" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AV29" t="n">
         <v>12</v>
       </c>
       <c r="AW29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX29" t="n">
         <v>19</v>
@@ -5724,13 +5791,13 @@
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA29" t="n">
         <v>3</v>
       </c>
       <c r="BB29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5928,7 @@
         <v>24</v>
       </c>
       <c r="AK30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5870,10 +5937,10 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP30" t="n">
         <v>25</v>
@@ -5894,10 +5961,10 @@
         <v>25</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX30" t="n">
         <v>12</v>
@@ -5906,7 +5973,7 @@
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA30" t="n">
         <v>17</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
@@ -5944,64 +6011,64 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" t="n">
         <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" t="n">
-        <v>0.483</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I31" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="J31" t="n">
-        <v>84.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.447</v>
+        <v>0.45</v>
       </c>
       <c r="L31" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="M31" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.387</v>
+        <v>0.394</v>
       </c>
       <c r="O31" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="P31" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.738</v>
+        <v>0.739</v>
       </c>
       <c r="R31" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S31" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T31" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U31" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="V31" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W31" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X31" t="n">
         <v>4.5</v>
@@ -6013,25 +6080,25 @@
         <v>20.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="AD31" t="n">
         <v>30</v>
       </c>
       <c r="AE31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG31" t="n">
         <v>12</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>14</v>
       </c>
       <c r="AH31" t="n">
         <v>4</v>
@@ -6040,25 +6107,25 @@
         <v>14</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM31" t="n">
         <v>14</v>
       </c>
       <c r="AN31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
         <v>23</v>
@@ -6070,19 +6137,19 @@
         <v>19</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW31" t="n">
         <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY31" t="n">
         <v>5</v>
@@ -6091,10 +6158,10 @@
         <v>10</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-1-2013-14</t>
+          <t>2014-01-01</t>
         </is>
       </c>
     </row>
